--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
@@ -14,8 +14,8 @@
     <definedName function="false" hidden="false" name="ResiduesByWarehouse" vbProcedure="false">Отчет!$F$6</definedName>
     <definedName function="false" hidden="false" name="Rows" vbProcedure="false">Отчет!$A$6:$F$7</definedName>
     <definedName function="false" hidden="false" name="SalesBySubdivision" vbProcedure="false">Отчет!$D$6:$E$6</definedName>
-    <definedName function="false" hidden="false" name="Subdivisions" vbProcedure="false">Отчет!$F$4:$G$5</definedName>
-    <definedName function="false" hidden="false" name="Warehouses" vbProcedure="false">Отчет!$I$4:$I$5</definedName>
+    <definedName function="false" hidden="false" name="Subdivisions" vbProcedure="false">Отчет!$D$4:$E$5</definedName>
+    <definedName function="false" hidden="false" name="Warehouses" vbProcedure="false">Отчет!$F$4:$F$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">Отчет по продажам</t>
   </si>
@@ -35,10 +35,10 @@
     <t xml:space="preserve">Общий отчет по продажам</t>
   </si>
   <si>
+    <t xml:space="preserve">{{item.Value}}&lt;&lt;Range horizontal&gt;&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">{{item.Value}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Общий остаток на складах</t>
   </si>
   <si>
     <t xml:space="preserve">Группы товаров</t>
@@ -73,7 +73,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -128,6 +128,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -215,7 +223,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -248,6 +256,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,11 +268,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -268,11 +280,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -284,11 +296,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,7 +405,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -424,70 +436,56 @@
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="17"/>
-    </row>
-    <row r="23" s="18" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="18"/>
+    </row>
+    <row r="23" s="19" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -521,26 +519,25 @@
       <c r="XFD23" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="XES31" s="18"/>
-      <c r="XET31" s="18"/>
-      <c r="XEU31" s="18"/>
-      <c r="XEV31" s="18"/>
-      <c r="XEW31" s="18"/>
-      <c r="XEX31" s="18"/>
-      <c r="XEY31" s="18"/>
-      <c r="XEZ31" s="18"/>
-      <c r="XFA31" s="18"/>
-      <c r="XFB31" s="18"/>
-      <c r="XFC31" s="18"/>
-      <c r="XFD31" s="18"/>
+      <c r="XES31" s="19"/>
+      <c r="XET31" s="19"/>
+      <c r="XEU31" s="19"/>
+      <c r="XEV31" s="19"/>
+      <c r="XEW31" s="19"/>
+      <c r="XEX31" s="19"/>
+      <c r="XEY31" s="19"/>
+      <c r="XEZ31" s="19"/>
+      <c r="XFA31" s="19"/>
+      <c r="XFB31" s="19"/>
+      <c r="XFC31" s="19"/>
+      <c r="XFD31" s="19"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:F6">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
@@ -69,9 +69,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$₽-419];[RED]\-#,##0.00\ [$₽-419]"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -223,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -280,6 +281,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,7 +297,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -405,7 +410,7 @@
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -468,7 +473,7 @@
       <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -476,16 +481,16 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="18"/>
-    </row>
-    <row r="23" s="19" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="19"/>
+    </row>
+    <row r="23" s="20" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
@@ -519,18 +524,18 @@
       <c r="XFD23" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="XES31" s="19"/>
-      <c r="XET31" s="19"/>
-      <c r="XEU31" s="19"/>
-      <c r="XEV31" s="19"/>
-      <c r="XEW31" s="19"/>
-      <c r="XEX31" s="19"/>
-      <c r="XEY31" s="19"/>
-      <c r="XEZ31" s="19"/>
-      <c r="XFA31" s="19"/>
-      <c r="XFB31" s="19"/>
-      <c r="XFC31" s="19"/>
-      <c r="XFD31" s="19"/>
+      <c r="XES31" s="20"/>
+      <c r="XET31" s="20"/>
+      <c r="XEU31" s="20"/>
+      <c r="XEV31" s="20"/>
+      <c r="XEW31" s="20"/>
+      <c r="XEX31" s="20"/>
+      <c r="XEY31" s="20"/>
+      <c r="XEZ31" s="20"/>
+      <c r="XFA31" s="20"/>
+      <c r="XFB31" s="20"/>
+      <c r="XFC31" s="20"/>
+      <c r="XFD31" s="20"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
@@ -318,27 +318,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-      </font>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -544,17 +523,6 @@
   <mergeCells count="1">
     <mergeCell ref="D4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>Отчет!$B6="Row"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>Отчет!$B6="SubTotalRow"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>Отчет!$B6="TotalRow"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2574480-56FD-4270-9DEC-74A47DC08E8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A37A16-B52D-40AE-B224-8BC0ADA926EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="630" windowWidth="21600" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9015" yWindow="2415" windowWidth="21600" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -228,17 +228,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -624,7 +624,7 @@
   <dimension ref="A1:XFD31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" activeCellId="1" sqref="F6 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -655,10 +655,10 @@
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="7" t="s">
         <v>3</v>
       </c>
@@ -684,21 +684,21 @@
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="13"/>
     </row>
     <row r="9" spans="2:6" ht="19.5" x14ac:dyDescent="0.25">

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A37A16-B52D-40AE-B224-8BC0ADA926EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D40298-8B7C-407A-9D2C-1DA70668A7B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9015" yWindow="2415" windowWidth="21600" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="2655" windowWidth="21600" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -235,10 +235,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -624,7 +624,7 @@
   <dimension ref="A1:XFD31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" activeCellId="1" sqref="F6 D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -655,10 +655,10 @@
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="7" t="s">
         <v>3</v>
       </c>
@@ -684,13 +684,13 @@
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D40298-8B7C-407A-9D2C-1DA70668A7B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCF0726-F331-4316-8B54-D4FECB5695BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="2655" windowWidth="21600" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2610" yWindow="2385" windowWidth="21600" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="Subdivisions">Отчет!$D$4:$E$5</definedName>
     <definedName name="Warehouses">Отчет!$F$4:$F$5</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -243,7 +243,30 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -624,7 +647,7 @@
   <dimension ref="A1:XFD31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -638,20 +661,20 @@
     <col min="16372" max="16384" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B1"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
     </row>
-    <row r="4" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
@@ -663,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
@@ -677,7 +700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
@@ -693,15 +716,17 @@
       <c r="F6" s="19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="17"/>
       <c r="E7" s="16"/>
       <c r="F7" s="13"/>
-    </row>
-    <row r="9" spans="2:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="H7" s="15"/>
+    </row>
+    <row r="9" spans="2:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C9" s="14"/>
     </row>
     <row r="23" spans="1:18 16372:16384" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -755,6 +780,11 @@
   <mergeCells count="1">
     <mergeCell ref="D4:E4"/>
   </mergeCells>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>OR($B6="SubTotalRow",$B6="TotalRow")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCF0726-F331-4316-8B54-D4FECB5695BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2717F347-0EAE-444F-85DF-A49990417517}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="2385" windowWidth="21600" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="1440" windowWidth="21600" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -243,18 +243,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -781,7 +770,7 @@
     <mergeCell ref="D4:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:F6">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR($B6="SubTotalRow",$B6="TotalRow")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Sales/SalesBySubdivisionsAnalitycsReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2717F347-0EAE-444F-85DF-A49990417517}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDD0CDF-0437-4C81-A29A-3EE68DDBBCA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="1440" windowWidth="21600" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,7 +243,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -252,6 +252,17 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -770,7 +781,7 @@
     <mergeCell ref="D4:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:F6">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>OR($B6="SubTotalRow",$B6="TotalRow")</formula>
     </cfRule>
   </conditionalFormatting>
